--- a/Viajante/print.xlsx
+++ b/Viajante/print.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="recorrido" localSheetId="0">Hoja1!$A$2:$A$51</definedName>
+    <definedName name="recorrido" localSheetId="0">Hoja1!$A$2:$A$201</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -31,15 +31,23 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>Distancia Recorrida</t>
+    <t>Distancia Recorrida (Promedio)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -67,8 +75,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -146,7 +155,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Distancia Recorrida</c:v>
+                  <c:v>Distancia Recorrida (Promedio)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -163,220 +172,611 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="es-AR"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$A$2:$A$51</c:f>
+              <c:f>Hoja1!$A$2:$A$201</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="200"/>
                 <c:pt idx="0">
-                  <c:v>34855</c:v>
+                  <c:v>32151</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28917</c:v>
+                  <c:v>32214</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32493</c:v>
+                  <c:v>31692</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32496</c:v>
+                  <c:v>32186</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26995</c:v>
+                  <c:v>32655</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32695</c:v>
+                  <c:v>32581</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29205</c:v>
+                  <c:v>32228</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33778</c:v>
+                  <c:v>31912</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31105</c:v>
+                  <c:v>32173</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>31663</c:v>
+                  <c:v>32021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>34337</c:v>
+                  <c:v>32218</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>34323</c:v>
+                  <c:v>32014</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>31881</c:v>
+                  <c:v>31976</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>29525</c:v>
+                  <c:v>32705</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>37140</c:v>
+                  <c:v>32413</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>35178</c:v>
+                  <c:v>31892</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>37909</c:v>
+                  <c:v>32290</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>32488</c:v>
+                  <c:v>32851</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>34782</c:v>
+                  <c:v>32374</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>34207</c:v>
+                  <c:v>32002</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>29556</c:v>
+                  <c:v>32273</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>30750</c:v>
+                  <c:v>32248</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>34581</c:v>
+                  <c:v>32571</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>35696</c:v>
+                  <c:v>32709</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>29462</c:v>
+                  <c:v>32211</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>34470</c:v>
+                  <c:v>32124</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>28794</c:v>
+                  <c:v>32357</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>31137</c:v>
+                  <c:v>31716</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>33077</c:v>
+                  <c:v>32182</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>31778</c:v>
+                  <c:v>31796</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>35873</c:v>
+                  <c:v>31388</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>32841</c:v>
+                  <c:v>32115</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>36543</c:v>
+                  <c:v>32474</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>35579</c:v>
+                  <c:v>32266</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>30697</c:v>
+                  <c:v>32661</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>33847</c:v>
+                  <c:v>31627</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>33522</c:v>
+                  <c:v>32133</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>34091</c:v>
+                  <c:v>32259</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>35167</c:v>
+                  <c:v>32704</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>32771</c:v>
+                  <c:v>32671</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>33996</c:v>
+                  <c:v>32032</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>37191</c:v>
+                  <c:v>31610</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>30210</c:v>
+                  <c:v>32555</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>32533</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>32729</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>32378</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>32480</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>31893</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>32482</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>32412</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>32300</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>32743</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>32567</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>32340</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>32346</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>31904</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>32099</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>32560</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>31906</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>32124</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>32944</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>32294</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>32031</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>32433</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>31057</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>32196</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>32799</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>32499</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>32366</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>32214</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>32203</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>31793</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>32053</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>32139</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>32308</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>31959</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>32385</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>32115</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>32312</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>31849</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>32478</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>33178</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>32150</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>32786</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>32338</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>31856</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>31688</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>32653</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>32444</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>32730</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>32816</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>32627</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>33102</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>31991</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>31421</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>32383</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>31590</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>31977</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>32674</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>32161</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>32158</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>33050</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>32541</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>32260</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>32344</c:v>
+                </c:pt>
+                <c:pt idx="105">
                   <c:v>32414</c:v>
                 </c:pt>
-                <c:pt idx="44">
-                  <c:v>33058</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>29668</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>33552</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>31478</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>34140</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>25000</c:v>
+                <c:pt idx="106">
+                  <c:v>32318</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>32131</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>31660</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>31993</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>32261</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>31990</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>32469</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>31822</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>32362</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>33225</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>32538</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>32457</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>32616</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>31780</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>32349</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>32352</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>31707</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>32262</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>32099</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>31650</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>32725</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>31465</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>32351</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>32379</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>32866</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>32233</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>31852</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>32831</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>32240</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>32124</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>32971</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>33066</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>32671</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>33027</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>32541</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>32138</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>32315</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>32480</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>32177</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>32464</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>32499</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>31914</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>32480</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>31896</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>32591</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>32014</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>32593</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>32249</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>32469</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>32265</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>32221</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>32296</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>32090</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>32226</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>32166</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>32347</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>31970</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>32918</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>32240</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>32254</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>31988</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>32398</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>32321</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>32294</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>32641</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>32050</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>31832</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>32533</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>32365</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>31892</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>31693</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>31892</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>32265</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>32297</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>31903</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>31966</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>31600</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>33018</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>32846</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>32568</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>32074</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>32087</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>32922</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>32692</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>32074</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>32786</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>32131</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>32750</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>33173</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>32707</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>32926</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>32609</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>32236</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>32197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -384,20 +784,19 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="19926864"/>
-        <c:axId val="19917616"/>
+        <c:axId val="1694568992"/>
+        <c:axId val="1694565728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="19926864"/>
+        <c:axId val="1694568992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -439,7 +838,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="19917616"/>
+        <c:crossAx val="1694565728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -447,7 +846,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="19917616"/>
+        <c:axId val="1694565728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -498,7 +897,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="19926864"/>
+        <c:crossAx val="1694568992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1107,20 +1506,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1429,10 +1828,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A51"/>
+  <dimension ref="A1:A201"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection sqref="A1:A51"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1446,257 +1845,1008 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>34855</v>
+      <c r="A2" s="1">
+        <v>32151</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>28917</v>
+        <v>32214</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>32493</v>
+        <v>31692</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>32496</v>
+        <v>32186</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>26995</v>
+        <v>32655</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>32695</v>
+        <v>32581</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>29205</v>
+        <v>32228</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>33778</v>
+        <v>31912</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>31105</v>
+        <v>32173</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>31663</v>
+        <v>32021</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>34337</v>
+        <v>32218</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>34323</v>
+        <v>32014</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>31881</v>
+        <v>31976</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>29525</v>
+        <v>32705</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>37140</v>
+        <v>32413</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>35178</v>
+        <v>31892</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>37909</v>
+        <v>32290</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>32488</v>
+        <v>32851</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>34782</v>
+        <v>32374</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>34207</v>
+        <v>32002</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>29556</v>
+        <v>32273</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>30750</v>
+        <v>32248</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>34581</v>
+        <v>32571</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>35696</v>
+        <v>32709</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>29462</v>
+        <v>32211</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>34470</v>
+        <v>32124</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>28794</v>
+        <v>32357</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>31137</v>
+        <v>31716</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>33077</v>
+        <v>32182</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>31778</v>
+        <v>31796</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>35873</v>
+        <v>31388</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>32841</v>
+        <v>32115</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>36543</v>
+        <v>32474</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>35579</v>
+        <v>32266</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>30697</v>
+        <v>32661</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>33847</v>
+        <v>31627</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>33522</v>
+        <v>32133</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>34091</v>
+        <v>32259</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>35167</v>
+        <v>32704</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>32771</v>
+        <v>32671</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>33996</v>
+        <v>32032</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>37191</v>
+        <v>31610</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>30210</v>
+        <v>32555</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>32414</v>
+        <v>32533</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>33058</v>
+        <v>32729</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>29668</v>
+        <v>32378</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>33552</v>
+        <v>32480</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>31478</v>
+        <v>31893</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>34140</v>
+        <v>32482</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>25000</v>
+        <v>32412</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>32300</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>32743</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>32567</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>32340</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>32346</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>31904</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>32099</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>32560</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>31906</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>32124</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>32944</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>32294</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>32031</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>32433</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>31057</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>32196</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>32799</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>32499</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>32366</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>32214</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>32203</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>31793</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>32053</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>32139</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>32308</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>31959</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>32385</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>32115</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>32312</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>31849</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>32478</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>33178</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>32150</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>32786</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>32338</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>31856</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>31688</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>32653</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>32444</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>32730</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>32816</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>32627</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>33102</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>31991</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>31421</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>32383</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>31590</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>31977</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>32674</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>32161</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>32158</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>33050</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>32541</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>32260</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>32344</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>32414</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>32318</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>32131</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>31660</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>31993</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>32261</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>31990</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>32469</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>31822</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>32362</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>33225</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>32538</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>32457</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>32616</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>31780</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>32349</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>32352</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>31707</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>32262</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>32099</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>31650</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>32725</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>31465</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>32351</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>32379</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>32866</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>32233</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>31852</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>32831</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>32240</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>32124</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>32971</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>33066</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>32671</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>33027</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>32541</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>32138</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>32315</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>32480</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>32177</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>32464</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>32499</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>31914</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>32480</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>31896</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>32591</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>32014</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>32593</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>32249</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>32469</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>32265</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>32221</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>32296</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>32090</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>32226</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>32166</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>32347</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>31970</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>32918</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>32240</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>32254</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>31988</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>32398</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>32321</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>32294</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>32641</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>32050</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>31832</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>32533</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>32365</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>31892</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>31693</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>31892</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>32265</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>32297</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>31903</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>31966</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>31600</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>33018</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>32846</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>32568</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>32074</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>32087</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>32922</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>32692</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>32074</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>32786</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>32131</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>32750</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>33173</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>32707</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>32926</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>32609</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>32236</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>32197</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>